--- a/tp2-agentes-racionales/resultados-ej4-5.xlsx
+++ b/tp2-agentes-racionales/resultados-ej4-5.xlsx
@@ -68,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -84,6 +84,11 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -106,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -117,6 +122,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -254,11 +262,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="474947455"/>
-        <c:axId val="1740687012"/>
+        <c:axId val="1698976243"/>
+        <c:axId val="742592033"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="474947455"/>
+        <c:axId val="1698976243"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -310,10 +318,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740687012"/>
+        <c:crossAx val="742592033"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1740687012"/>
+        <c:axId val="742592033"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,7 +396,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474947455"/>
+        <c:crossAx val="1698976243"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -458,6 +466,52 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Hoja 2'!$A$3:$A$9</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Hoja 2'!$H$3:$H$9</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Agente con comportamiento totalmente aleatorio</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln cmpd="sng">
               <a:solidFill>
@@ -495,57 +549,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Agente con comportamiento totalmente aleatorio</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr/>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Hoja 2'!$A$3:$A$9</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Hoja 2'!$H$3:$H$9</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="1410667127"/>
-        <c:axId val="1785425906"/>
+        <c:axId val="1056535508"/>
+        <c:axId val="584414872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1410667127"/>
+        <c:axId val="1056535508"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -597,10 +605,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1785425906"/>
+        <c:crossAx val="584414872"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1785425906"/>
+        <c:axId val="584414872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +683,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1410667127"/>
+        <c:crossAx val="1056535508"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -828,11 +836,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1775502865"/>
-        <c:axId val="1190891535"/>
+        <c:axId val="1609808095"/>
+        <c:axId val="661278524"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1775502865"/>
+        <c:axId val="1609808095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,10 +892,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1190891535"/>
+        <c:crossAx val="661278524"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1190891535"/>
+        <c:axId val="661278524"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -962,7 +970,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1775502865"/>
+        <c:crossAx val="1609808095"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1115,11 +1123,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1286152372"/>
-        <c:axId val="789842284"/>
+        <c:axId val="1119391684"/>
+        <c:axId val="829321179"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1286152372"/>
+        <c:axId val="1119391684"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,10 +1179,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="789842284"/>
+        <c:crossAx val="829321179"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="789842284"/>
+        <c:axId val="829321179"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +1257,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1286152372"/>
+        <c:crossAx val="1119391684"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1392,11 +1400,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="508210961"/>
-        <c:axId val="124366088"/>
+        <c:axId val="557166781"/>
+        <c:axId val="1505557541"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="508210961"/>
+        <c:axId val="557166781"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,10 +1479,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124366088"/>
+        <c:crossAx val="1505557541"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124366088"/>
+        <c:axId val="1505557541"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -1550,7 +1558,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508210961"/>
+        <c:crossAx val="557166781"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1693,11 +1701,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2056910993"/>
-        <c:axId val="916960988"/>
+        <c:axId val="570806650"/>
+        <c:axId val="847505076"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2056910993"/>
+        <c:axId val="570806650"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1772,10 +1780,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="916960988"/>
+        <c:crossAx val="847505076"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="916960988"/>
+        <c:axId val="847505076"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -1851,7 +1859,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056910993"/>
+        <c:crossAx val="570806650"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1994,11 +2002,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1967894632"/>
-        <c:axId val="516871980"/>
+        <c:axId val="2056194066"/>
+        <c:axId val="558772519"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1967894632"/>
+        <c:axId val="2056194066"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,10 +2081,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516871980"/>
+        <c:crossAx val="558772519"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516871980"/>
+        <c:axId val="558772519"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -2152,7 +2160,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1967894632"/>
+        <c:crossAx val="2056194066"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2295,11 +2303,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1590530431"/>
-        <c:axId val="1720250110"/>
+        <c:axId val="566722865"/>
+        <c:axId val="1883219280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1590530431"/>
+        <c:axId val="566722865"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2374,10 +2382,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1720250110"/>
+        <c:crossAx val="1883219280"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1720250110"/>
+        <c:axId val="1883219280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -2453,7 +2461,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1590530431"/>
+        <c:crossAx val="566722865"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3165,10 +3173,10 @@
       <c r="C7" s="3">
         <v>102.0</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>32.4</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>0.317647059</v>
       </c>
       <c r="F7" s="2" t="s">
